--- a/Proyectos/2015/11/P1335 - 2HR, Jorge Armando Hernández_OC/Ventas/Estimación.xlsx
+++ b/Proyectos/2015/11/P1335 - 2HR, Jorge Armando Hernández_OC/Ventas/Estimación.xlsx
@@ -12,12 +12,12 @@
     <sheet name="servicios" sheetId="3" r:id="rId3"/>
     <sheet name="Roles" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="63">
   <si>
     <t/>
   </si>
@@ -170,21 +170,6 @@
   </si>
   <si>
     <t>Estimada 1 hora quincenal basado en 30 proyectos</t>
-  </si>
-  <si>
-    <t>Control de cambios</t>
-  </si>
-  <si>
-    <t>Recibir y Generar solicitud de cambios</t>
-  </si>
-  <si>
-    <t>Analizar solicitud de cambios</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>Notificar cambios y actualizar documentos</t>
   </si>
   <si>
     <t>Monto total de servicios</t>
@@ -639,10 +624,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -659,7 +644,7 @@
       </c>
       <c r="B3" s="3">
         <f>Etapas_proyecto!B1</f>
-        <v>103.60169999999999</v>
+        <v>90.333899999999986</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -693,7 +678,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B3:B5)</f>
-        <v>103.60169999999999</v>
+        <v>90.333899999999986</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +688,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
@@ -724,7 +709,7 @@
       </c>
       <c r="B1" s="3">
         <f>SUM(E:E)</f>
-        <v>103.60169999999999</v>
+        <v>90.333899999999986</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -1432,101 +1417,6 @@
         <v>50</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="1">
-        <v>14.58</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="E33" s="1">
-        <f>SUM(C33)*SUM(D33)</f>
-        <v>5.9777999999999993</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="E34" s="1">
-        <f>SUM(C34)*SUM(D34)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="1">
-        <v>14.58</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="1">
-        <f>SUM(C35)*SUM(D35)</f>
-        <v>7.29</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1551,7 +1441,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B1" s="3">
         <f>SUM(D2:D100)</f>
@@ -1560,13 +1450,13 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -1574,7 +1464,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -1610,15 +1500,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
@@ -1647,7 +1537,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
@@ -1655,7 +1545,7 @@
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1">
         <v>14.58</v>
